--- a/bikesharing_output/kpis.xlsx
+++ b/bikesharing_output/kpis.xlsx
@@ -7,9 +7,13 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2016" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2017" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2011" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2012" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2013" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2014" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2015" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="2016" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="2017" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,6 +431,7010 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:AL6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Month</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Avg Trip Duration (min)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Avg Trip Distance (km)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Top Bike 1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Top Bike 2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Top Bike 3</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Top Bike 4</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Top Bike 5</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Top Bike 6</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Top Bike 7</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Top Bike 8</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Top Bike 9</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Top Bike 10</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Top Start Station 1</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Top Start Station 2</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Top Start Station 3</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Top Start Station 4</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Top Start Station 5</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Top Start Station 6</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Top Start Station 7</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Top Start Station 8</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Top Start Station 9</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Top Start Station 10</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Top End Station 1</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Top End Station 2</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Top End Station 3</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Top End Station 4</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Top End Station 5</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Top End Station 6</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Top End Station 7</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Top End Station 8</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Top End Station 9</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Top End Station 10</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Timeslot 06:00-12:00 (%)</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Timeslot 12:00-18:00 (%)</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Timeslot 00:00-06:00 (%)</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Timeslot 18:00-24:00 (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="n">
+        <v>56.27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>B00454 (21)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>B00539 (21)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>B00514 (21)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>B00316 (20)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>B00557 (20)</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>B00358 (20)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>B00159 (20)</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>B00329 (19)</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>B00111 (18)</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>B00066 (18)</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (235)</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Boylston St. at Arlington St. (187)</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (131)</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Prudential Center / Belvidere (109)</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #2 (107)</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Cross St. at Hanover St. (100)</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Packard's Corner - Comm. Ave. at Brighton Ave. (94)</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Mayor Martin J. Walsh - 28 State St. (92)</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Tremont St / W Newton St (88)</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aquarium Station - 200 Atlantic Ave. (81)</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (229)</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>Boylston St. at Arlington St. (179)</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (107)</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Packard's Corner - Comm. Ave. at Brighton Ave. (105)</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #2 (102)</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>Tremont St / W Newton St (91)</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>Prudential Center / Belvidere (91)</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>Mayor Martin J. Walsh - 28 State St. (88)</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>Washington St. at Rutland St. (87)</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>Cross St. at Hanover St. (86)</t>
+        </is>
+      </c>
+      <c r="AI2" t="n">
+        <v>14.83</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>51.74</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>30.07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>B00474 (116)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>B00583 (115)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>B00497 (112)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>B00370 (112)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>B00206 (109)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>B00021 (109)</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>B00144 (108)</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>B00120 (108)</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>B00580 (107)</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>B00047 (106)</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (2235)</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (2001)</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Boylston St. at Arlington St. (1886)</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Newbury St / Hereford St (1496)</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #2 (1315)</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Mayor Martin J. Walsh - 28 State St. (1134)</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Seaport Square - Seaport Blvd. at Boston Wharf (1102)</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Prudential Center / Belvidere (1091)</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Back Bay / South End Station (1059)</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Christian Science Plaza (1036)</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (2215)</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>Boylston St. at Arlington St. (2006)</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (1957)</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Newbury St / Hereford St (1572)</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #2 (1206)</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>Seaport Square - Seaport Blvd. at Boston Wharf (1134)</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>Prudential Center / Belvidere (1074)</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>Beacon St / Mass Ave (1066)</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>Mayor Martin J. Walsh - 28 State St. (1049)</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>Kenmore Sq / Comm Ave (1023)</t>
+        </is>
+      </c>
+      <c r="AI3" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>43.07</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>28.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>33.19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>B00432 (132)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>B00318 (124)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>B00210 (120)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>B00088 (119)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>B00485 (118)</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>B00091 (118)</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>B00546 (117)</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>B00290 (115)</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>B00550 (115)</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>B00563 (114)</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (2097)</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (1901)</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Boylston St. at Arlington St. (1716)</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #2 (1490)</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Newbury St / Hereford St (1284)</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Beacon St / Mass Ave (1083)</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Back Bay / South End Station (1083)</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Kenmore Sq / Comm Ave (1061)</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Seaport Square - Seaport Blvd. at Boston Wharf (1046)</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Lewis Wharf - Atlantic Ave. (1042)</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (2087)</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (1918)</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>Boylston St. at Arlington St. (1827)</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #2 (1333)</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Newbury St / Hereford St (1332)</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>Kenmore Sq / Comm Ave (1147)</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>Beacon St / Mass Ave (1111)</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>Seaport Square - Seaport Blvd. at Boston Wharf (1037)</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>Prudential Center / Belvidere (1035)</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>Lewis Wharf - Atlantic Ave. (1017)</t>
+        </is>
+      </c>
+      <c r="AI4" t="n">
+        <v>25.54</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>45.79</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>24.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="n">
+        <v>29.82</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>B00146 (106)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>B00029 (105)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>B00078 (102)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>B00217 (102)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>B00272 (102)</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>B00205 (101)</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>B00292 (99)</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>B00313 (96)</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>B00127 (94)</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>B00109 (94)</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (1846)</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (1577)</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #2 (1303)</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Boylston St. at Arlington St. (1207)</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Back Bay / South End Station (1047)</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Charles Circle - Charles St. at Cambridge St. (952)</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Newbury St / Hereford St (949)</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Kenmore Sq / Comm Ave (948)</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Beacon St / Mass Ave (922)</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Washington St. at Rutland St. (874)</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (1979)</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (1595)</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #2 (1293)</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Boylston St. at Arlington St. (1187)</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Kenmore Sq / Comm Ave (999)</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>Newbury St / Hereford St (993)</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>Back Bay / South End Station (937)</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>Charles Circle - Charles St. at Cambridge St. (935)</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>Washington St. at Rutland St. (877)</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>Beacon St / Mass Ave (876)</t>
+        </is>
+      </c>
+      <c r="AI5" t="n">
+        <v>26.94</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>46.87</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>21.85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>B00138 (79)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>B00504 (78)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>B00174 (75)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>B00243 (74)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>B00121 (73)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>B00311 (73)</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>B00431 (72)</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>B00289 (72)</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>B00353 (72)</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>B00080 (69)</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (1409)</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #2 (1143)</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (905)</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Back Bay / South End Station (812)</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Boylston St. at Arlington St. (748)</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Lewis Wharf - Atlantic Ave. (695)</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Washington St. at Rutland St. (680)</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Boylston St / Berkeley St (582)</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Stuart St. at Charles St. (581)</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Kenmore Sq / Comm Ave (580)</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (1600)</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #2 (968)</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (909)</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Boylston St. at Arlington St. (772)</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Back Bay / South End Station (675)</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>Lewis Wharf - Atlantic Ave. (646)</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>Kenmore Sq / Comm Ave (601)</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>Washington St. at Rutland St. (594)</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>Boylston St / Berkeley St (585)</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>Rowes Wharf - Atlantic Ave (579)</t>
+        </is>
+      </c>
+      <c r="AI6" t="n">
+        <v>32.66</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>44.55</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>18.57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AL10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Month</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Avg Trip Duration (min)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Avg Trip Distance (km)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Top Bike 1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Top Bike 2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Top Bike 3</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Top Bike 4</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Top Bike 5</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Top Bike 6</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Top Bike 7</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Top Bike 8</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Top Bike 9</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Top Bike 10</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Top Start Station 1</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Top Start Station 2</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Top Start Station 3</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Top Start Station 4</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Top Start Station 5</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Top Start Station 6</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Top Start Station 7</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Top Start Station 8</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Top Start Station 9</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Top Start Station 10</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Top End Station 1</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Top End Station 2</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Top End Station 3</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Top End Station 4</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Top End Station 5</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Top End Station 6</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Top End Station 7</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Top End Station 8</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Top End Station 9</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Top End Station 10</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Timeslot 06:00-12:00 (%)</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Timeslot 12:00-18:00 (%)</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Timeslot 00:00-06:00 (%)</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Timeslot 18:00-24:00 (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>B00005 (65)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>B00170 (61)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>B00125 (60)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>B00149 (60)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>B00101 (59)</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>B00008 (59)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>B00389 (59)</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>B00423 (59)</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>B00401 (57)</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>B00587 (57)</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (975)</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (856)</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #2 (575)</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Back Bay / South End Station (508)</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Landmark Centre (478)</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Lewis Wharf - Atlantic Ave. (473)</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Charles Circle - Charles St. at Cambridge St. (466)</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Mayor Martin J. Walsh - 28 State St. (464)</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Stuart St. at Charles St. (453)</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Christian Science Plaza (451)</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (991)</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (895)</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #2 (678)</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Stuart St. at Charles St. (493)</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Landmark Centre (493)</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>Charles Circle - Charles St. at Cambridge St. (476)</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>Back Bay / South End Station (469)</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>Christian Science Plaza (448)</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>Lewis Wharf - Atlantic Ave. (438)</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>Rowes Wharf - Atlantic Ave (435)</t>
+        </is>
+      </c>
+      <c r="AI2" t="n">
+        <v>26.48</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>46.12</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>24.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>B00071 (124)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>B00369 (121)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>B00337 (118)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>B00099 (116)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>B00428 (114)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>B00116 (114)</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>B00003 (114)</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>B00312 (112)</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>B00180 (112)</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>B00507 (112)</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (2045)</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #2 (1776)</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Boylston St. at Arlington St. (1452)</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Back Bay / South End Station (1438)</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Charles Circle - Charles St. at Cambridge St. (1412)</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (1173)</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Newbury St / Hereford St (1172)</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Kenmore Sq / Comm Ave (1155)</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Washington St. at Rutland St. (1143)</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>The Esplanade - Beacon St. at Arlington St. (1122)</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (2144)</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #2 (1826)</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>Boylston St. at Arlington St. (1497)</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Charles Circle - Charles St. at Cambridge St. (1392)</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Back Bay / South End Station (1301)</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>Newbury St / Hereford St (1211)</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>Kenmore Sq / Comm Ave (1204)</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (1156)</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>The Esplanade - Beacon St. at Arlington St. (1101)</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>Washington St. at Rutland St. (1038)</t>
+        </is>
+      </c>
+      <c r="AI3" t="n">
+        <v>28.05</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>45.23</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>23.56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>B00320 (142)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>B00451 (135)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>B00434 (133)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>B00141 (133)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>B00484 (130)</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>B00627 (130)</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>B00001 (129)</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>B00399 (128)</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>B00077 (128)</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>B00576 (127)</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (2538)</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #2 (2214)</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (1882)</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Charles Circle - Charles St. at Cambridge St. (1781)</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>The Esplanade - Beacon St. at Arlington St. (1544)</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Boylston St. at Arlington St. (1478)</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Back Bay / South End Station (1422)</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Tremont St / West St (1387)</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Kenmore Sq / Comm Ave (1373)</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Cross St. at Hanover St. (1258)</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (2608)</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #2 (2346)</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (1828)</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Charles Circle - Charles St. at Cambridge St. (1820)</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Boylston St. at Arlington St. (1498)</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>The Esplanade - Beacon St. at Arlington St. (1460)</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>Kenmore Sq / Comm Ave (1426)</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>Back Bay / South End Station (1298)</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>Tremont St / West St (1276)</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>Beacon St / Mass Ave (1260)</t>
+        </is>
+      </c>
+      <c r="AI4" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>45.79</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>25.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>17.37</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>B00427 (149)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>B00453 (147)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>B00184 (143)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>B00392 (141)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>B00245 (137)</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>B00397 (137)</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>B00348 (137)</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>B00448 (136)</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>B00387 (135)</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>B00573 (134)</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (2821)</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #2 (2483)</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (1985)</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Charles Circle - Charles St. at Cambridge St. (1795)</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Boylston St. at Arlington St. (1531)</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Back Bay / South End Station (1519)</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>The Esplanade - Beacon St. at Arlington St. (1485)</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Tremont St / West St (1467)</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Washington St. at Rutland St. (1353)</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Beacon St / Mass Ave (1329)</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (2806)</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #2 (2587)</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (2009)</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Charles Circle - Charles St. at Cambridge St. (1761)</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Boylston St. at Arlington St. (1564)</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>Back Bay / South End Station (1453)</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>Tremont St / West St (1423)</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>Rowes Wharf - Atlantic Ave (1389)</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>The Esplanade - Beacon St. at Arlington St. (1370)</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>Washington St. at Rutland St. (1344)</t>
+        </is>
+      </c>
+      <c r="AI5" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>42.26</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>26.14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>19.03</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>B00062 (174)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>B00602 (172)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>B00538 (171)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>B00577 (169)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>B00622 (169)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>B00118 (169)</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>B00628 (169)</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>B00382 (167)</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>B00098 (167)</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>B00563 (165)</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (3538)</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #2 (2959)</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (2732)</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Boylston St. at Arlington St. (2162)</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Charles Circle - Charles St. at Cambridge St. (1936)</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Tremont St / West St (1917)</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>The Esplanade - Beacon St. at Arlington St. (1908)</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Back Bay / South End Station (1760)</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Aquarium Station - 200 Atlantic Ave. (1721)</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Kenmore Sq / Comm Ave (1719)</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (3371)</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #2 (3095)</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (2682)</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Boylston St. at Arlington St. (2245)</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Charles Circle - Charles St. at Cambridge St. (2040)</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>Tremont St / West St (1916)</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>Kenmore Sq / Comm Ave (1785)</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>The Esplanade - Beacon St. at Arlington St. (1785)</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>Aquarium Station - 200 Atlantic Ave. (1750)</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>Rowes Wharf - Atlantic Ave (1692)</t>
+        </is>
+      </c>
+      <c r="AI6" t="n">
+        <v>27.87</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>42.93</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>25.95</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>18.05</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>T01111 (190)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>T01014 (187)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>T01449 (180)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>B00448 (178)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>T01429 (177)</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>T01013 (173)</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>T01195 (173)</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>T01172 (172)</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>T01113 (171)</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>T01110 (171)</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (3908)</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #2 (3005)</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (2828)</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Charles Circle - Charles St. at Cambridge St. (2446)</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Boylston St. at Arlington St. (1955)</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Aquarium Station - 200 Atlantic Ave. (1912)</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>The Esplanade - Beacon St. at Arlington St. (1861)</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Back Bay / South End Station (1817)</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Boylston at Fairfield (1766)</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster (1752)</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (3688)</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #2 (3136)</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (2880)</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Charles Circle - Charles St. at Cambridge St. (2511)</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Boylston St. at Arlington St. (2063)</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>Aquarium Station - 200 Atlantic Ave. (1872)</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>Back Bay / South End Station (1784)</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster (1771)</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>Boylston at Fairfield (1751)</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>The Esplanade - Beacon St. at Arlington St. (1734)</t>
+        </is>
+      </c>
+      <c r="AI7" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>43.01</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>26.96</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B8" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8" t="n">
+        <v>16.84</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>T01122 (179)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>T01137 (172)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>T01190 (168)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>T01157 (167)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>T01450 (165)</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>T01080 (163)</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>T01365 (162)</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>T01183 (160)</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>T01113 (158)</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>T01295 (157)</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (3080)</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #2 (2616)</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (2433)</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St (1948)</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Kenmore Sq / Comm Ave (1824)</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster (1800)</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Charles Circle - Charles St. at Cambridge St. (1799)</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Beacon St / Mass Ave (1751)</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Boylston at Fairfield (1612)</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Boylston St. at Arlington St. (1567)</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (3089)</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #2 (2824)</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (2414)</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St (2043)</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Kenmore Sq / Comm Ave (1843)</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster (1834)</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>Charles Circle - Charles St. at Cambridge St. (1825)</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>Beacon St / Mass Ave (1715)</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>Boylston St. at Arlington St. (1622)</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>Boylston at Fairfield (1583)</t>
+        </is>
+      </c>
+      <c r="AI8" t="n">
+        <v>27.11</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>44.96</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>24.45</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="n">
+        <v>14.92</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>T01152 (148)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>T01121 (145)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>T01243 (140)</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>T01101 (140)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>T01194 (137)</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>T01169 (137)</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>T01131 (134)</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>T01218 (134)</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>T01223 (134)</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>T01330 (133)</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (2734)</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #2 (2452)</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St (2369)</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (1983)</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Beacon St / Mass Ave (1793)</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Kenmore Sq / Comm Ave (1525)</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Charles Circle - Charles St. at Cambridge St. (1482)</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Back Bay / South End Station (1412)</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Boylston at Fairfield (1371)</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster (1350)</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (2834)</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #2 (2539)</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St (2471)</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (2053)</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Kenmore Sq / Comm Ave (1624)</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>Beacon St / Mass Ave (1560)</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>Charles Circle - Charles St. at Cambridge St. (1460)</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster (1431)</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>Boylston at Fairfield (1406)</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>Back Bay / South End Station (1367)</t>
+        </is>
+      </c>
+      <c r="AI9" t="n">
+        <v>30.11</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>44.17</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>22.43</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>14.12</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>T01158 (102)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>T01018 (102)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>T01220 (96)</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>T01281 (93)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>T01251 (92)</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>T01039 (90)</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>T01230 (89)</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>T01443 (88)</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>T01340 (87)</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>B00176 (86)</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #2 (1612)</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St (1552)</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (1536)</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (1191)</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Beacon St / Mass Ave (1152)</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Back Bay / South End Station (894)</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Kenmore Sq / Comm Ave (871)</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Boylston at Fairfield (870)</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Charles Circle - Charles St. at Cambridge St. (844)</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Rowes Wharf - Atlantic Ave (826)</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St (1685)</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #2 (1566)</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (1522)</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (1230)</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Beacon St / Mass Ave (999)</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster (980)</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>Rowes Wharf - Atlantic Ave (931)</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>Kenmore Sq / Comm Ave (924)</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>Boylston at Fairfield (911)</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>Post Office Square (857)</t>
+        </is>
+      </c>
+      <c r="AI10" t="n">
+        <v>31.13</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>20.23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AL10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Month</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Avg Trip Duration (min)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Avg Trip Distance (km)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Top Bike 1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Top Bike 2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Top Bike 3</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Top Bike 4</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Top Bike 5</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Top Bike 6</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Top Bike 7</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Top Bike 8</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Top Bike 9</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Top Bike 10</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Top Start Station 1</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Top Start Station 2</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Top Start Station 3</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Top Start Station 4</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Top Start Station 5</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Top Start Station 6</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Top Start Station 7</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Top Start Station 8</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Top Start Station 9</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Top Start Station 10</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Top End Station 1</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Top End Station 2</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Top End Station 3</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Top End Station 4</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Top End Station 5</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Top End Station 6</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Top End Station 7</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Top End Station 8</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Top End Station 9</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Top End Station 10</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Timeslot 06:00-12:00 (%)</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Timeslot 12:00-18:00 (%)</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Timeslot 00:00-06:00 (%)</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Timeslot 18:00-24:00 (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>16.95</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>T01404 (121)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>T01135 (116)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>T01166 (115)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>T01220 (115)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>T01304 (113)</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>T01145 (113)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>T01091 (113)</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>T01317 (113)</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>T01106 (111)</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>T01288 (111)</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (2022)</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St (1970)</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Beacon St / Mass Ave (1647)</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Boylston St. at Arlington St. (1606)</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Charles Circle - Charles St. at Cambridge St. (1506)</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Back Bay / South End Station (1449)</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>The Esplanade - Beacon St. at Arlington St. (1398)</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Kenmore Sq / Comm Ave (1392)</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Newbury St / Hereford St (1378)</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #1 (1262)</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (2169)</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St (2112)</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>Boylston St. at Arlington St. (1747)</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Charles Circle - Charles St. at Cambridge St. (1455)</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Back Bay / South End Station (1453)</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>Beacon St / Mass Ave (1430)</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster (1425)</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>Kenmore Sq / Comm Ave (1415)</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>Newbury St / Hereford St (1406)</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>The Esplanade - Beacon St. at Arlington St. (1303)</t>
+        </is>
+      </c>
+      <c r="AI2" t="n">
+        <v>27.97</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>45.66</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>23.69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>T01078 (158)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>B00636 (157)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>T01331 (156)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>T01304 (156)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>T01186 (154)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>T01077 (153)</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>T01198 (153)</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>T01177 (151)</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>T01362 (151)</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>T01317 (146)</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (3207)</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St (2593)</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Charles Circle - Charles St. at Cambridge St. (2454)</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (2184)</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Beacon St / Mass Ave (2114)</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #1 (1982)</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Back Bay / South End Station (1861)</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>The Esplanade - Beacon St. at Arlington St. (1845)</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Boylston St. at Arlington St. (1759)</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Kenmore Sq / Comm Ave (1653)</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (3351)</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St (2791)</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #1 (2442)</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Charles Circle - Charles St. at Cambridge St. (2301)</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (2202)</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>Boylston St. at Arlington St. (2037)</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>Beacon St / Mass Ave (1858)</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster (1824)</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>Kenmore Sq / Comm Ave (1731)</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>Lafayette Square at Mass Ave / Main St / Columbia St (1685)</t>
+        </is>
+      </c>
+      <c r="AI3" t="n">
+        <v>29.58</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>23.56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>T01333 (175)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>T01413 (171)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>T01088 (169)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>T01309 (168)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>T01100 (166)</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>T01046 (165)</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>T01089 (165)</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>T01018 (165)</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>T01364 (164)</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>T01367 (163)</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (3120)</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Charles Circle - Charles St. at Cambridge St. (2750)</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St (2625)</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (2331)</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Beacon St / Mass Ave (2251)</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #1 (2073)</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Cross St. at Hanover St. (2024)</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster (1991)</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>The Esplanade - Beacon St. at Arlington St. (1947)</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Lafayette Square at Mass Ave / Main St / Columbia St (1912)</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (3152)</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St (2665)</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>Charles Circle - Charles St. at Cambridge St. (2623)</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (2397)</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster (2314)</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #1 (2178)</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>Beacon St / Mass Ave (2089)</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>Boylston St. at Arlington St. (2018)</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>Lafayette Square at Mass Ave / Main St / Columbia St (1990)</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>Cross St. at Hanover St. (1891)</t>
+        </is>
+      </c>
+      <c r="AI4" t="n">
+        <v>27.78</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>42.54</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>26.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>15.82</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>T01407 (203)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>T01193 (200)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>T01252 (196)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>T01186 (191)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>T01357 (188)</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>T01028 (186)</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>B00056 (185)</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>B00083 (183)</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>T01068 (183)</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>T01296 (182)</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (3906)</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St (3309)</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Charles Circle - Charles St. at Cambridge St. (3055)</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (2942)</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Beacon St / Mass Ave (2912)</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster (2563)</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>The Esplanade - Beacon St. at Arlington St. (2391)</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #1 (2344)</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Boylston St. at Arlington St. (2312)</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Ames St at Main St (2311)</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (3684)</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St (3391)</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (2985)</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Charles Circle - Charles St. at Cambridge St. (2959)</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster (2956)</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>Beacon St / Mass Ave (2653)</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>Boylston St. at Arlington St. (2539)</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #1 (2493)</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>Lafayette Square at Mass Ave / Main St / Columbia St (2371)</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>The Esplanade - Beacon St. at Arlington St. (2287)</t>
+        </is>
+      </c>
+      <c r="AI5" t="n">
+        <v>27.97</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>40.24</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>28.15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" t="n">
+        <v>16.21</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>T01416 (236)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>T01399 (230)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>T01001 (229)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>B00585 (228)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>T01196 (222)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>T01280 (220)</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>T01008 (219)</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>T01396 (218)</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>T01116 (215)</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>T01028 (213)</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (4176)</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St (3891)</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Charles Circle - Charles St. at Cambridge St. (3592)</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Beacon St / Mass Ave (3160)</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (3126)</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster (3052)</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #1 (2818)</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>The Esplanade - Beacon St. at Arlington St. (2711)</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Ames St at Main St (2618)</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Central Square at Mass Ave / Essex St (2596)</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St (3959)</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (3946)</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>Charles Circle - Charles St. at Cambridge St. (3483)</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster (3439)</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (3257)</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>Beacon St / Mass Ave (2906)</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #1 (2903)</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>Lafayette Square at Mass Ave / Main St / Columbia St (2787)</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>Boylston St. at Arlington St. (2707)</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>Boylston at Fairfield (2591)</t>
+        </is>
+      </c>
+      <c r="AI6" t="n">
+        <v>26.73</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>42.48</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>27.46</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>T01297 (201)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>B01479 (201)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>T01283 (201)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>B01476 (199)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>T01318 (197)</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>B01484 (193)</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>B01480 (191)</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>B00562 (190)</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>T01249 (188)</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>T01121 (187)</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St (4401)</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (3695)</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Charles Circle - Charles St. at Cambridge St. (3092)</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (3009)</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Beacon St / Mass Ave (2941)</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Ames St at Main St (2823)</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster (2822)</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Lafayette Square at Mass Ave / Main St / Columbia St (2719)</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>MIT Stata Center at Vassar St / Main St (2680)</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Kenmore Sq / Comm Ave (2537)</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St (4422)</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (3464)</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster (3112)</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (3085)</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Charles Circle - Charles St. at Cambridge St. (2916)</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #1 (2852)</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>Lafayette Square at Mass Ave / Main St / Columbia St (2843)</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>Beacon St / Mass Ave (2823)</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>Kenmore Sq / Comm Ave (2621)</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>MIT Stata Center at Vassar St / Main St (2611)</t>
+        </is>
+      </c>
+      <c r="AI7" t="n">
+        <v>27.96</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>43.03</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>25.67</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" t="n">
+        <v>13.59</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>B00677 (213)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>B00647 (206)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>B01479 (204)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>B00664 (204)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>B00675 (192)</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>B00088 (189)</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>T01317 (188)</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>A07807 (188)</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>B01466 (185)</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>T01263 (183)</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St (4733)</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (3598)</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Beacon St / Mass Ave (2938)</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Ames St at Main St (2882)</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>MIT Stata Center at Vassar St / Main St (2836)</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (2800)</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Lafayette Square at Mass Ave / Main St / Columbia St (2663)</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster (2654)</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #1 (2595)</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Charles Circle - Charles St. at Cambridge St. (2452)</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St (4814)</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (3476)</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster (3021)</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #1 (3011)</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>MIT Stata Center at Vassar St / Main St (2996)</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (2926)</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>Beacon St / Mass Ave (2707)</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>Lafayette Square at Mass Ave / Main St / Columbia St (2648)</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>Ames St at Main St (2567)</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>Kenmore Sq / Comm Ave (2481)</t>
+        </is>
+      </c>
+      <c r="AI8" t="n">
+        <v>30.32</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>23.76</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>B00677 (137)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>T01099 (124)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>A07811 (123)</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>B01490 (122)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>B00084 (118)</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>B00656 (117)</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>T01117 (116)</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>B00395 (115)</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>T01077 (114)</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>B00667 (111)</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St (2797)</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (1746)</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>MIT Stata Center at Vassar St / Main St (1649)</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Beacon St / Mass Ave (1611)</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Ames St at Main St (1484)</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #1 (1465)</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster (1387)</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Central Square at Mass Ave / Essex St (1349)</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Lafayette Square at Mass Ave / Main St / Columbia St (1289)</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Back Bay / South End Station (1164)</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St (2747)</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (1778)</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>MIT Stata Center at Vassar St / Main St (1728)</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster (1708)</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #1 (1611)</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>Ames St at Main St (1505)</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>Beacon St / Mass Ave (1483)</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>Lafayette Square at Mass Ave / Main St / Columbia St (1360)</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>Central Square at Mass Ave / Essex St (1351)</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (1206)</t>
+        </is>
+      </c>
+      <c r="AI9" t="n">
+        <v>31.07</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>23.14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B10" t="n">
+        <v>12</v>
+      </c>
+      <c r="C10" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>T01364 (59)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>T01345 (59)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>T01107 (59)</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>T01404 (55)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>T01027 (55)</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>T01437 (54)</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>T01225 (54)</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>T01146 (53)</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>T01393 (53)</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>T01232 (53)</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St (686)</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Central Square at Mass Ave / Essex St (658)</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>MIT Stata Center at Vassar St / Main St (636)</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Ames St at Main St (568)</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Inman Square at Vellucci Plaza / Hampshire St (463)</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster (414)</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>One Kendall Square at Hampshire St / Portland St (405)</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Central Sq Post Office / Cambridge City Hall at Mass Ave / Pleasant St (401)</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Harvard University Housing - 115 Putnam Ave at Peabody Terrace (346)</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>CambridgeSide Galleria - CambridgeSide PL at Land Blvd (316)</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St (722)</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>Central Square at Mass Ave / Essex St (666)</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>Ames St at Main St (636)</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>MIT Stata Center at Vassar St / Main St (602)</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster (487)</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>Inman Square at Vellucci Plaza / Hampshire St (465)</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>Central Sq Post Office / Cambridge City Hall at Mass Ave / Pleasant St (454)</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>One Kendall Square at Hampshire St / Portland St (384)</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>CambridgeSide Galleria - CambridgeSide PL at Land Blvd (314)</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>Porter Square Station (304)</t>
+        </is>
+      </c>
+      <c r="AI10" t="n">
+        <v>30.16</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>39.58</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>26.31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AL13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Month</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Avg Trip Duration (min)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Avg Trip Distance (km)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Top Bike 1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Top Bike 2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Top Bike 3</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Top Bike 4</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Top Bike 5</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Top Bike 6</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Top Bike 7</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Top Bike 8</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Top Bike 9</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Top Bike 10</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Top Start Station 1</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Top Start Station 2</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Top Start Station 3</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Top Start Station 4</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Top Start Station 5</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Top Start Station 6</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Top Start Station 7</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Top Start Station 8</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Top Start Station 9</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Top Start Station 10</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Top End Station 1</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Top End Station 2</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Top End Station 3</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Top End Station 4</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Top End Station 5</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Top End Station 6</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Top End Station 7</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Top End Station 8</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Top End Station 9</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Top End Station 10</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Timeslot 06:00-12:00 (%)</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Timeslot 12:00-18:00 (%)</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Timeslot 00:00-06:00 (%)</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Timeslot 18:00-24:00 (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9.66</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>T01195 (55)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>T01387 (49)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>T01165 (49)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>T01107 (47)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>T01267 (46)</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>B01484 (46)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>T01255 (46)</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>B01479 (44)</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>T01341 (43)</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>T01226 (43)</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>MIT Stata Center at Vassar St / Main St (523)</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St (517)</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Inman Square at Vellucci Plaza / Hampshire St (494)</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Central Square at Mass Ave / Essex St (486)</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>One Kendall Square at Hampshire St / Portland St (451)</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Ames St at Main St (432)</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Harvard University Housing - 115 Putnam Ave at Peabody Terrace (296)</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster (283)</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Cambridge St - at Columbia St / Webster Ave (278)</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Central Sq Post Office / Cambridge City Hall at Mass Ave / Pleasant St (271)</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St (553)</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>MIT Stata Center at Vassar St / Main St (542)</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>Ames St at Main St (504)</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Central Square at Mass Ave / Essex St (473)</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Inman Square at Vellucci Plaza / Hampshire St (431)</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>One Kendall Square at Hampshire St / Portland St (421)</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>Central Sq Post Office / Cambridge City Hall at Mass Ave / Pleasant St (342)</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>Cambridge St - at Columbia St / Webster Ave (282)</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster (280)</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>CambridgeSide Galleria - CambridgeSide PL at Land Blvd (277)</t>
+        </is>
+      </c>
+      <c r="AI2" t="n">
+        <v>33.24</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>37.21</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>26.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>T01437 (52)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>B01466 (51)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>T01128 (50)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>T01341 (50)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>T01050 (48)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>T01058 (47)</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>T01211 (47)</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>B01465 (46)</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>T01013 (46)</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>T01149 (45)</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St (605)</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Central Square at Mass Ave / Essex St (538)</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Inman Square at Vellucci Plaza / Hampshire St (529)</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>MIT Stata Center at Vassar St / Main St (496)</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Ames St at Main St (482)</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>One Kendall Square at Hampshire St / Portland St (416)</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster (352)</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Harvard University Housing - 115 Putnam Ave at Peabody Terrace (338)</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Central Sq Post Office / Cambridge City Hall at Mass Ave / Pleasant St (310)</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Cambridge St - at Columbia St / Webster Ave (285)</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>MIT Stata Center at Vassar St / Main St (595)</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St (587)</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>Ames St at Main St (526)</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Central Square at Mass Ave / Essex St (525)</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Inman Square at Vellucci Plaza / Hampshire St (484)</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster (397)</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>Central Sq Post Office / Cambridge City Hall at Mass Ave / Pleasant St (384)</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>One Kendall Square at Hampshire St / Portland St (382)</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>Lower Cambridgeport at Magazine St/Riverside Rd (256)</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>Cambridge St - at Columbia St / Webster Ave (256)</t>
+        </is>
+      </c>
+      <c r="AI3" t="n">
+        <v>31.58</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>26.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>T01279 (76)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>T01264 (74)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>T01049 (71)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>T01187 (71)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>T01165 (70)</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>T01033 (66)</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>T01089 (65)</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>T01433 (64)</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>T01072 (64)</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>T01248 (63)</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St (920)</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>MIT Stata Center at Vassar St / Main St (884)</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Central Square at Mass Ave / Essex St (816)</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Ames St at Main St (801)</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Inman Square at Vellucci Plaza / Hampshire St (725)</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>One Kendall Square at Hampshire St / Portland St (685)</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster (552)</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Central Sq Post Office / Cambridge City Hall at Mass Ave / Pleasant St (431)</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Harvard University Housing - 115 Putnam Ave at Peabody Terrace (412)</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>359 Broadway - Broadway at Fayette Street (411)</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St (983)</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>MIT Stata Center at Vassar St / Main St (894)</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>Ames St at Main St (827)</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Central Square at Mass Ave / Essex St (744)</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Inman Square at Vellucci Plaza / Hampshire St (691)</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>One Kendall Square at Hampshire St / Portland St (631)</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster (614)</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>Central Sq Post Office / Cambridge City Hall at Mass Ave / Pleasant St (552)</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>Porter Square Station (403)</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>Cambridge Main Library at Broadway / Trowbridge St (394)</t>
+        </is>
+      </c>
+      <c r="AI4" t="n">
+        <v>29.16</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>28.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>14.42</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>B00001 (136)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>T01409 (134)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>T01155 (132)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>T01231 (131)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>T01152 (130)</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>T01042 (130)</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>B01489 (128)</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>B00641 (127)</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>T01327 (126)</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>T01066 (124)</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St (3158)</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (2066)</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Beacon St / Mass Ave (2043)</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>MIT Stata Center at Vassar St / Main St (1941)</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Back Bay / South End Station (1868)</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster (1843)</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Ames St at Main St (1733)</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Boylston St. at Arlington St. (1729)</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Boylston / Mass Ave (1677)</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Kenmore Sq / Comm Ave (1664)</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St (3212)</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (2206)</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>MIT Stata Center at Vassar St / Main St (2112)</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #1 (2068)</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster (2029)</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>Boylston St. at Arlington St. (1929)</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>Beacon St / Mass Ave (1913)</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>Kenmore Sq / Comm Ave (1833)</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>Back Bay / South End Station (1799)</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>Boylston / Mass Ave (1797)</t>
+        </is>
+      </c>
+      <c r="AI5" t="n">
+        <v>29.48</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>24.62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>15.67</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>B01535 (194)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>B01514 (187)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>B00585 (184)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>A07814 (184)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>B01801 (181)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>B01791 (178)</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>B00622 (177)</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>B00663 (177)</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>B00513 (173)</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>B01552 (173)</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St (3770)</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (3679)</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster (2640)</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Cambridge St. at Joy St. (2598)</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Beacon St / Mass Ave (2592)</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Lafayette Square at Mass Ave / Main St / Columbia St (2530)</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Central Square at Mass Ave / Essex St (2424)</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (2356)</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Ames St at Main St (2353)</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>MIT Stata Center at Vassar St / Main St (2347)</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St (3866)</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (3673)</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster (3003)</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #1 (2884)</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Cambridge St. at Joy St. (2584)</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>Lafayette Square at Mass Ave / Main St / Columbia St (2521)</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>Central Square at Mass Ave / Essex St (2462)</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>MIT Stata Center at Vassar St / Main St (2458)</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (2430)</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>Beacon St / Mass Ave (2419)</t>
+        </is>
+      </c>
+      <c r="AI6" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>25.15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>T01242 (204)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>B00666 (202)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>T01087 (202)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>B01500 (201)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>B00658 (201)</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>B00667 (199)</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>T01028 (198)</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>A07819 (198)</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>B01548 (198)</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>T01168 (198)</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (4314)</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St (3769)</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Cambridge St. at Joy St. (2942)</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster (2919)</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Lafayette Square at Mass Ave / Main St / Columbia St (2778)</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (2743)</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Central Square at Mass Ave / Essex St (2722)</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #1 (2643)</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Beacon St / Mass Ave (2620)</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Ames St at Main St (2509)</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (4092)</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St (3754)</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster (3081)</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #1 (3035)</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Cambridge St. at Joy St. (2936)</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>Lafayette Square at Mass Ave / Main St / Columbia St (2854)</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>Central Square at Mass Ave / Essex St (2768)</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (2744)</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>MIT Stata Center at Vassar St / Main St (2626)</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>Beacon St / Mass Ave (2513)</t>
+        </is>
+      </c>
+      <c r="AI7" t="n">
+        <v>28.37</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>41.21</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>27.75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>B01564 (233)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>B00001 (232)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>B01803 (227)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>T01263 (224)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>B00149 (221)</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>T01371 (217)</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>B00630 (215)</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>T01202 (213)</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>T01422 (212)</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>T01147 (209)</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St (4590)</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (4422)</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster (3380)</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Cambridge St. at Joy St. (3165)</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (3073)</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Lafayette Square at Mass Ave / Main St / Columbia St (3046)</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #1 (2924)</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Central Square at Mass Ave / Essex St (2886)</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>MIT Stata Center at Vassar St / Main St (2760)</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Beacon St / Mass Ave (2721)</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St (4490)</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (4242)</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster (3666)</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #1 (3343)</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Cambridge St. at Joy St. (3166)</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>Lafayette Square at Mass Ave / Main St / Columbia St (3107)</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (3085)</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>Central Square at Mass Ave / Essex St (2931)</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>MIT Stata Center at Vassar St / Main St (2879)</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>Beacon St / Mass Ave (2742)</t>
+        </is>
+      </c>
+      <c r="AI8" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>28.21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>15.93</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>B01468 (214)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>B01660 (212)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>B00585 (212)</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>B01551 (211)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>B01523 (210)</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>T01054 (209)</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>B01506 (209)</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>B00481 (206)</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>T01284 (206)</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>T01278 (205)</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (4518)</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St (4323)</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster (3390)</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (3129)</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Lafayette Square at Mass Ave / Main St / Columbia St (3053)</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Central Square at Mass Ave / Essex St (2912)</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Mayor Martin J. Walsh - 28 State St. (2841)</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Beacon St / Mass Ave (2696)</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Boylston at Fairfield (2671)</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #1 (2658)</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (4382)</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St (4173)</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster (3594)</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #1 (3223)</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (3162)</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>Lafayette Square at Mass Ave / Main St / Columbia St (3069)</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>MIT Stata Center at Vassar St / Main St (2886)</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>Central Square at Mass Ave / Essex St (2872)</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>Mayor Martin J. Walsh - 28 State St. (2755)</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>Beacon St / Mass Ave (2693)</t>
+        </is>
+      </c>
+      <c r="AI9" t="n">
+        <v>28.09</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>43.07</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>26.02</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>14.49</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>B01608 (213)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>T01263 (202)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>B01804 (201)</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>B01611 (199)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>B01490 (198)</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>A07799 (197)</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>T01173 (196)</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>B00954 (196)</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>T01392 (195)</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>T01395 (194)</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St (4876)</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (4545)</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Lafayette Square at Mass Ave / Main St / Columbia St (3171)</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>MIT Stata Center at Vassar St / Main St (3153)</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster (3091)</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (2791)</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Beacon St / Mass Ave (2758)</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Ames St at Main St (2739)</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Central Square at Mass Ave / Essex St (2704)</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Kenmore Sq / Comm Ave (2627)</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St (4596)</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (4486)</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>MIT Stata Center at Vassar St / Main St (3619)</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #1 (3281)</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster (3224)</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>Lafayette Square at Mass Ave / Main St / Columbia St (3139)</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (2801)</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>Beacon St / Mass Ave (2765)</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>Kenmore Sq / Comm Ave (2753)</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>Central Square at Mass Ave / Essex St (2690)</t>
+        </is>
+      </c>
+      <c r="AI10" t="n">
+        <v>30.94</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>42.85</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>23.74</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>13.55</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>B01472 (167)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>B00441 (160)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>A07813 (160)</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>B01795 (160)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>B00324 (160)</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>T01215 (159)</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>T01249 (159)</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>B01597 (159)</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>B00521 (158)</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>B01456 (156)</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St (4132)</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (3604)</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>MIT Stata Center at Vassar St / Main St (2719)</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Lafayette Square at Mass Ave / Main St / Columbia St (2627)</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster (2453)</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Ames St at Main St (2433)</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Beacon St / Mass Ave (2414)</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Central Square at Mass Ave / Essex St (2389)</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Kenmore Sq / Comm Ave (2178)</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #1 (2109)</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St (3964)</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (3590)</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>MIT Stata Center at Vassar St / Main St (3120)</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Lafayette Square at Mass Ave / Main St / Columbia St (2693)</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #1 (2637)</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster (2608)</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>Central Square at Mass Ave / Essex St (2398)</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>Beacon St / Mass Ave (2269)</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>Ames St at Main St (2263)</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>Kenmore Sq / Comm Ave (2241)</t>
+        </is>
+      </c>
+      <c r="AI11" t="n">
+        <v>31.94</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>42.75</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>22.68</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>T01322 (112)</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>T01071 (104)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>B00585 (103)</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>T01063 (101)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>T01154 (100)</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>T01403 (100)</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>B01486 (99)</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>T01217 (98)</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>B00067 (97)</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>B00319 (96)</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St (2334)</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (2047)</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Lafayette Square at Mass Ave / Main St / Columbia St (1619)</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Central Square at Mass Ave / Essex St (1511)</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>MIT Stata Center at Vassar St / Main St (1489)</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster (1389)</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #1 (1367)</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Ames St at Main St (1343)</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>One Kendall Square at Hampshire St / Portland St (1278)</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Back Bay / South End Station (1160)</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St (2342)</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (2219)</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>MIT Stata Center at Vassar St / Main St (1777)</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Lafayette Square at Mass Ave / Main St / Columbia St (1560)</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #1 (1528)</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster (1515)</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>Central Square at Mass Ave / Essex St (1421)</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>Ames St at Main St (1343)</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (1245)</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>One Kendall Square at Hampshire St / Portland St (1234)</t>
+        </is>
+      </c>
+      <c r="AI12" t="n">
+        <v>34.27</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>40.15</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>22.77</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>B00107 (88)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>T01333 (85)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>B00553 (84)</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>T01175 (82)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>T01399 (79)</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>T01307 (79)</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>T01011 (79)</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>T01327 (78)</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>T01015 (77)</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>B00958 (77)</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (1246)</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St (1229)</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Ames St at Main St (969)</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Central Square at Mass Ave / Essex St (929)</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>One Kendall Square at Hampshire St / Portland St (858)</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #1 (841)</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Inman Square at Vellucci Plaza / Hampshire St (837)</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (834)</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Central Sq Post Office / Cambridge City Hall at Mass Ave / Pleasant St (731)</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>MIT Stata Center at Vassar St / Main St (727)</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>South Station - 700 Atlantic Ave. (1319)</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>MIT at Mass Ave / Amherst St (1223)</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>Boston Public Library - 700 Boylston St. (1064)</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Central Square at Mass Ave / Essex St (911)</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Ames St at Main St (911)</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>TD Garden - Causeway at Portal Park #1 (891)</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>MIT Stata Center at Vassar St / Main St (864)</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>One Kendall Square at Hampshire St / Portland St (828)</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>Harvard Square at Mass Ave/ Dunster (805)</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>Inman Square at Vellucci Plaza / Hampshire St (766)</t>
+        </is>
+      </c>
+      <c r="AI13" t="n">
+        <v>35.85</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>40.96</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>20.77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AV13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -742,12 +7750,12 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
+          <t>659 (47)</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
           <t>1171 (47)</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>659 (47)</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -928,14 +7936,14 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
+          <t>1107 (37)</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
           <t>1291 (37)</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>1107 (37)</t>
-        </is>
-      </c>
       <c r="Q3" t="inlineStr">
         <is>
           <t>1077 (36)</t>
@@ -968,12 +7976,12 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
+          <t>822 (29)</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
           <t>1289 (29)</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>822 (29)</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -1144,14 +8152,14 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
+          <t>660 (61)</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
           <t>1302 (61)</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>660 (61)</t>
-        </is>
-      </c>
       <c r="S4" t="inlineStr">
         <is>
           <t>1086 (60)</t>
@@ -1159,14 +8167,14 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
+          <t>1081 (59)</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
           <t>1096 (59)</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>1081 (59)</t>
-        </is>
-      </c>
       <c r="V4" t="inlineStr">
         <is>
           <t>771 (59)</t>
@@ -1174,12 +8182,12 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
+          <t>900 (58)</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
           <t>773 (58)</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>1275 (58)</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1561,17 +8569,17 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
+          <t>614 (182)</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>1067 (182)</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
           <t>774 (182)</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>1067 (182)</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>614 (182)</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -1767,12 +8775,12 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
+          <t>617 (180)</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>1230 (180)</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>617 (180)</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -2807,17 +9815,17 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
+          <t>1418 (187)</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>1477 (187)</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
           <t>1500 (187)</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>1477 (187)</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>1418 (187)</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
@@ -3003,12 +10011,12 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
+          <t>1495 (152)</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
           <t>1418 (152)</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>1495 (152)</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -3154,7 +10162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3661,14 +10669,14 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
+          <t>653 (74)</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
           <t>1545 (74)</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>653 (74)</t>
-        </is>
-      </c>
       <c r="Q3" t="inlineStr">
         <is>
           <t>1531 (72)</t>
@@ -3691,12 +10699,12 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
+          <t>782 (67)</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
           <t>1303 (67)</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>782 (67)</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -4108,17 +11116,17 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
+          <t>1454 (116)</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>1567 (116)</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
           <t>1446 (116)</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>1454 (116)</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>1567 (116)</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -4761,12 +11769,12 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
+          <t>Boston Public Library - 700 Boylston St. (2625)</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
           <t>Charles Circle - Charles St. at Cambridge St. (2625)</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>Boston Public Library - 700 Boylston St. (2625)</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
@@ -5138,12 +12146,12 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
+          <t>1605 (221)</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
           <t>1857 (221)</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>1605 (221)</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
@@ -5545,12 +12553,12 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
+          <t>1429 (155)</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
           <t>1880 (155)</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>1429 (155)</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
@@ -5681,7 +12689,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5997,17 +13005,17 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
+          <t>1278 (68)</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
           <t>1656 (68)</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>1559 (68)</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>1278 (68)</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -6193,12 +13201,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
+          <t>1076 (83)</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
           <t>1569 (83)</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>1076 (83)</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -6615,14 +13623,14 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
+          <t>277 (148)</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
           <t>1434 (148)</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>277 (148)</t>
-        </is>
-      </c>
       <c r="T5" t="inlineStr">
         <is>
           <t>1525 (147)</t>
@@ -6735,12 +13743,12 @@
       </c>
       <c r="AP5" t="inlineStr">
         <is>
+          <t>Beacon St at Arlington St (1762)</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
           <t>Kendall T (1762)</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>Beacon St at Arlington St (1762)</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
@@ -7057,7 +14065,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>1722 (199)</t>
+          <t>1789 (199)</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -7650,12 +14658,12 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
+          <t>1257 (209)</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
           <t>1824 (209)</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>1257 (209)</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
@@ -8067,12 +15075,12 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
+          <t>1749 (160)</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
           <t>1900 (160)</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>1749 (160)</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">

--- a/bikesharing_output/kpis.xlsx
+++ b/bikesharing_output/kpis.xlsx
@@ -646,19 +646,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>B00514 (21)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>B00539 (21)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>B00454 (21)</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>B00539 (21)</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>B00514 (21)</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>B00316 (20)</t>
@@ -666,17 +666,17 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>B00159 (20)</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>B00358 (20)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>B00557 (20)</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>B00358 (20)</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>B00159 (20)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -842,22 +842,22 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>B00021 (109)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>B00206 (109)</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>B00021 (109)</t>
-        </is>
-      </c>
       <c r="K3" t="inlineStr">
         <is>
+          <t>B00120 (108)</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>B00144 (108)</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>B00120 (108)</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -1184,14 +1184,14 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>B00217 (102)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>B00078 (102)</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>B00217 (102)</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>B00272 (102)</t>
@@ -1214,12 +1214,12 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
+          <t>B00109 (94)</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>B00127 (94)</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>B00109 (94)</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1370,27 +1370,27 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>B00311 (73)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>B00121 (73)</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>B00311 (73)</t>
-        </is>
-      </c>
       <c r="K6" t="inlineStr">
         <is>
+          <t>B00353 (72)</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>B00289 (72)</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
           <t>B00431 (72)</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>B00289 (72)</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>B00353 (72)</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -1747,29 +1747,29 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>B00149 (60)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>B00125 (60)</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>B00149 (60)</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>B00008 (59)</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>B00389 (59)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>B00101 (59)</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>B00008 (59)</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>B00389 (59)</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>B00423 (59)</t>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>B00401 (57)</t>
+          <t>B00221 (57)</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -2290,12 +2290,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>B00348 (137)</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>B00397 (137)</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>B00348 (137)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -2642,12 +2642,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>T01195 (173)</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>T01013 (173)</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>T01195 (173)</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -3145,14 +3145,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>T01018 (102)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>T01158 (102)</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>T01018 (102)</t>
-        </is>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>T01220 (96)</t>
@@ -3190,7 +3190,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>B00176 (86)</t>
+          <t>T01288 (86)</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -3743,12 +3743,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
+          <t>T01362 (151)</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
           <t>T01177 (151)</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>T01362 (151)</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -4095,12 +4095,12 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
+          <t>T01068 (183)</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
           <t>B00083 (183)</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>T01068 (183)</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -4281,7 +4281,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>T01028 (213)</t>
+          <t>T01238 (213)</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -4412,19 +4412,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>T01283 (201)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>T01297 (201)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>B01479 (201)</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>T01283 (201)</t>
-        </is>
-      </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>B01476 (199)</t>
@@ -4457,7 +4457,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>T01121 (187)</t>
+          <t>T01225 (187)</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -4975,17 +4975,17 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
+          <t>T01232 (53)</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
           <t>T01146 (53)</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>T01393 (53)</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>T01232 (53)</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -5347,17 +5347,17 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>T01255 (46)</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>T01267 (46)</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>B01484 (46)</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>T01255 (46)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -5538,12 +5538,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
+          <t>T01013 (46)</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
           <t>B01465 (46)</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>T01013 (46)</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -5875,12 +5875,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>T01042 (130)</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>T01152 (130)</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>T01042 (130)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -6564,12 +6564,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>B00585 (212)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>B01660 (212)</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>B00585 (212)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -6780,7 +6780,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>T01395 (194)</t>
+          <t>T01093 (194)</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -6921,12 +6921,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
+          <t>B01795 (160)</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>A07813 (160)</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>B01795 (160)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -7971,12 +7971,12 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
+          <t>822 (29)</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
           <t>1139 (29)</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>822 (29)</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -8152,14 +8152,14 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
+          <t>1302 (61)</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
           <t>660 (61)</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>1302 (61)</t>
-        </is>
-      </c>
       <c r="S4" t="inlineStr">
         <is>
           <t>1086 (60)</t>
@@ -8182,7 +8182,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>900 (58)</t>
+          <t>769 (58)</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -8373,22 +8373,22 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
+          <t>782 (109)</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
           <t>709 (109)</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>782 (109)</t>
-        </is>
-      </c>
       <c r="V5" t="inlineStr">
         <is>
+          <t>1289 (108)</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
           <t>948 (108)</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>1289 (108)</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -8569,17 +8569,17 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
+          <t>774 (182)</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>1067 (182)</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
           <t>614 (182)</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>1067 (182)</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>774 (182)</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -8775,14 +8775,14 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
+          <t>1230 (180)</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>617 (180)</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>1230 (180)</t>
-        </is>
-      </c>
       <c r="T7" t="inlineStr">
         <is>
           <t>404 (173)</t>
@@ -8800,12 +8800,12 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
+          <t>351 (171)</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
           <t>462 (171)</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>351 (171)</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -10011,12 +10011,12 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
+          <t>1418 (152)</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
           <t>1495 (152)</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>1418 (152)</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -10473,24 +10473,24 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
+          <t>1565 (63)</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
           <t>654 (63)</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>1565 (63)</t>
-        </is>
-      </c>
       <c r="S2" t="inlineStr">
         <is>
+          <t>643 (59)</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
           <t>681 (59)</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>643 (59)</t>
-        </is>
-      </c>
       <c r="U2" t="inlineStr">
         <is>
           <t>639 (58)</t>
@@ -10498,12 +10498,12 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
+          <t>1550 (57)</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
           <t>926 (57)</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>1550 (57)</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -10669,12 +10669,12 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
+          <t>1545 (74)</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
           <t>653 (74)</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>1545 (74)</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -11317,14 +11317,14 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
+          <t>1443 (224)</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
           <t>1384 (224)</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>1443 (224)</t>
-        </is>
-      </c>
       <c r="W6" t="inlineStr">
         <is>
           <t>1591 (219)</t>
@@ -11332,7 +11332,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>1514 (216)</t>
+          <t>1428 (216)</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -11719,14 +11719,14 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
+          <t>1385 (241)</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
           <t>1479 (241)</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>1385 (241)</t>
-        </is>
-      </c>
       <c r="U8" t="inlineStr">
         <is>
           <t>1591 (240)</t>
@@ -11744,7 +11744,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>350 (235)</t>
+          <t>1433 (235)</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -11769,12 +11769,12 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
+          <t>Charles Circle - Charles St. at Cambridge St. (2625)</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
           <t>Boston Public Library - 700 Boylston St. (2625)</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>Charles Circle - Charles St. at Cambridge St. (2625)</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
@@ -12342,12 +12342,12 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
+          <t>1810 (195)</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
           <t>1700 (195)</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>1810 (195)</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -12553,12 +12553,12 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
+          <t>1880 (155)</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
           <t>1429 (155)</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>1880 (155)</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
@@ -13010,12 +13010,12 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
+          <t>1559 (68)</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
           <t>1656 (68)</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>1559 (68)</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -13432,12 +13432,12 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
+          <t>769 (74)</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
           <t>1483 (74)</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>769 (74)</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -13623,12 +13623,12 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
+          <t>1434 (148)</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
           <t>277 (148)</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>1434 (148)</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -13844,22 +13844,22 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
+          <t>1711 (165)</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>1710 (165)</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>1690 (165)</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
           <t>1811 (165)</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>1711 (165)</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>1690 (165)</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>1710 (165)</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -14030,12 +14030,12 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
+          <t>1865 (211)</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
           <t>1828 (211)</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>1865 (211)</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -14658,12 +14658,12 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
+          <t>1824 (209)</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
           <t>1257 (209)</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>1824 (209)</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
@@ -15075,12 +15075,12 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
+          <t>1900 (160)</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
           <t>1749 (160)</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>1900 (160)</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -15286,12 +15286,12 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
+          <t>1906 (88)</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
           <t>1893 (88)</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>1906 (88)</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
